--- a/BDP2.xlsx
+++ b/BDP2.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A013-13\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en-A013-11\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEE73377-0591-4A42-B555-0A6CCC6189E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A70114-DF3B-4607-B900-4B6150DABAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FB55F4A-ADCD-4FB3-95A5-9868C5662823}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Income</t>
   </si>
@@ -66,9 +64,6 @@
   </si>
   <si>
     <t>Planned</t>
-  </si>
-  <si>
-    <t>Actually</t>
   </si>
   <si>
     <t>Due</t>
@@ -166,14 +161,27 @@
   <si>
     <t>Gifts&amp;Donations</t>
   </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="mmmm"/>
+    <numFmt numFmtId="174" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="dd\-mmmm"/>
+    <numFmt numFmtId="177" formatCode="d\ mmmm"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -201,7 +209,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +306,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -364,92 +384,74 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -491,7 +493,7 @@
     <xf numFmtId="165" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="16" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,7 +502,7 @@
     <xf numFmtId="165" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="16" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,20 +511,149 @@
     <xf numFmtId="165" fontId="0" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Walutowy" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0066"/>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFFF9900"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFFF6699"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FFFF66FF"/>
-      <color rgb="FFFF0066"/>
       <color rgb="FFFFB7FF"/>
       <color rgb="FFFF9999"/>
     </mruColors>
@@ -538,10 +669,6568 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Summary</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$22:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Income</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Expences</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Savings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3730-42F2-AA21-7DD576DB8080}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$22:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Income</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Expences</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Savings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3730-42F2-AA21-7DD576DB8080}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="911614703"/>
+        <c:axId val="911618063"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="911614703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="911618063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="911618063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="911614703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Income</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> structure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26334198660143271"/>
+          <c:y val="2.7777949713916776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5F21-4599-B1E2-2FE59AF2D6AD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5F21-4599-B1E2-2FE59AF2D6AD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-5F21-4599-B1E2-2FE59AF2D6AD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-5F21-4599-B1E2-2FE59AF2D6AD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14166666666666666"/>
+                  <c:y val="-0.12962962962962962"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5F21-4599-B1E2-2FE59AF2D6AD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.1666666666666563E-2"/>
+                  <c:y val="-5.5555555555555601E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5F21-4599-B1E2-2FE59AF2D6AD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14722222222222223"/>
+                  <c:y val="6.4814814814814811E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5F21-4599-B1E2-2FE59AF2D6AD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.18611111111111112"/>
+                  <c:y val="-9.2592592592592587E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5F21-4599-B1E2-2FE59AF2D6AD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Scholarship</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Salary</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Allowance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gifts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F21-4599-B1E2-2FE59AF2D6AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="60"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Expences</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> structure</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27363646655806978"/>
+          <c:y val="0.18436236168570816"/>
+          <c:w val="0.4527270668838605"/>
+          <c:h val="0.66853491293525125"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="44000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-40A0-43D9-9439-EC739F041A19}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-40A0-43D9-9439-EC739F041A19}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="72000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-40A0-43D9-9439-EC739F041A19}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-40A0-43D9-9439-EC739F041A19}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-40A0-43D9-9439-EC739F041A19}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-40A0-43D9-9439-EC739F041A19}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="72000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-40A0-43D9-9439-EC739F041A19}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-40A0-43D9-9439-EC739F041A19}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="44000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-40A0-43D9-9439-EC739F041A19}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1909355714808105"/>
+                  <c:y val="0.10532992346657538"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-40A0-43D9-9439-EC739F041A19}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.27222222222222231"/>
+                  <c:y val="-4.1666666666666755E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-40A0-43D9-9439-EC739F041A19}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1953703137497885"/>
+                  <c:y val="0.18933500345241755"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-40A0-43D9-9439-EC739F041A19}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20000000000000004"/>
+                  <c:y val="9.7222222222222224E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-40A0-43D9-9439-EC739F041A19}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.27144242583201761"/>
+                  <c:y val="0.1573834591483263"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-40A0-43D9-9439-EC739F041A19}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.30833333333333335"/>
+                  <c:y val="9.2592592592592587E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-40A0-43D9-9439-EC739F041A19}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28333333333333333"/>
+                  <c:y val="-2.3148148148148147E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-40A0-43D9-9439-EC739F041A19}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.29756327390955511"/>
+                  <c:y val="-0.14793174077276131"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.21221044814276438"/>
+                      <c:h val="0.165596006220154"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-40A0-43D9-9439-EC739F041A19}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.32046771820501241"/>
+                  <c:y val="-0.13876905357339725"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-40A0-43D9-9439-EC739F041A19}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$5:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Accomodation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Health&amp;Beauty</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gifts&amp;Donations</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40A0-43D9-9439-EC739F041A19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="60"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bills</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> structure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30531780402449693"/>
+          <c:y val="0.21740449110527851"/>
+          <c:w val="0.40047572178477692"/>
+          <c:h val="0.66745953630796151"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="47000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F9D5-4B95-AB47-1C83055DBC8A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F9D5-4B95-AB47-1C83055DBC8A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="82000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-F9D5-4B95-AB47-1C83055DBC8A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F9D5-4B95-AB47-1C83055DBC8A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="83000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-F9D5-4B95-AB47-1C83055DBC8A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F9D5-4B95-AB47-1C83055DBC8A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="48000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F9D5-4B95-AB47-1C83055DBC8A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18888888888888888"/>
+                  <c:y val="6.4814814814814811E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-F9D5-4B95-AB47-1C83055DBC8A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17499999999999999"/>
+                  <c:y val="0.28240740740740738"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-F9D5-4B95-AB47-1C83055DBC8A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20555555555555557"/>
+                  <c:y val="9.722222222222214E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-F9D5-4B95-AB47-1C83055DBC8A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2"/>
+                  <c:y val="-1.3888888888888888E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F9D5-4B95-AB47-1C83055DBC8A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24166666666666667"/>
+                  <c:y val="-6.4814814814814811E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-F9D5-4B95-AB47-1C83055DBC8A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24166666666666667"/>
+                  <c:y val="-0.11111111111111113"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F9D5-4B95-AB47-1C83055DBC8A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.31666666666666665"/>
+                  <c:y val="-5.0925925925925923E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-F9D5-4B95-AB47-1C83055DBC8A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$5:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mobile phone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gas</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Electricity</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Waste</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9D5-4B95-AB47-1C83055DBC8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="60"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Subscriptions</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> structure</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-DEB7-41AA-9930-4E61FD57B604}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-DEB7-41AA-9930-4E61FD57B604}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DEB7-41AA-9930-4E61FD57B604}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DEB7-41AA-9930-4E61FD57B604}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17777777777777767"/>
+                  <c:y val="-1.3888888888888888E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-DEB7-41AA-9930-4E61FD57B604}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.33333333333333331"/>
+                  <c:y val="3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-DEB7-41AA-9930-4E61FD57B604}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16666666666666669"/>
+                  <c:y val="-1.3888888888888888E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DEB7-41AA-9930-4E61FD57B604}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20555555555555552"/>
+                  <c:y val="-5.555555555555558E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DEB7-41AA-9930-4E61FD57B604}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$5:$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Netflix</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spotify</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Audible</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iCloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$5:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEB7-41AA-9930-4E61FD57B604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="60"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Savings structure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34141666666666665"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0B3E-49D6-BBCD-A8C9119C4A54}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-0B3E-49D6-BBCD-A8C9119C4A54}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0B3E-49D6-BBCD-A8C9119C4A54}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0B3E-49D6-BBCD-A8C9119C4A54}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="53000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-0B3E-49D6-BBCD-A8C9119C4A54}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1611111111111112"/>
+                  <c:y val="-0.12500000000000006"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0B3E-49D6-BBCD-A8C9119C4A54}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.20555555555555546"/>
+                  <c:y val="6.0185185185185182E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0B3E-49D6-BBCD-A8C9119C4A54}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19722222222222222"/>
+                  <c:y val="8.7962962962962965E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0B3E-49D6-BBCD-A8C9119C4A54}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16967751704925832"/>
+                  <c:y val="-0.20370333916593766"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.36007990652028377"/>
+                      <c:h val="0.16645851560221639"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0B3E-49D6-BBCD-A8C9119C4A54}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13611111111111113"/>
+                  <c:y val="-0.12037037037037036"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-0B3E-49D6-BBCD-A8C9119C4A54}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$5:$S$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Investments</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Retirement</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Travel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Appliances&amp;Furniture</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$5:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B3E-49D6-BBCD-A8C9119C4A54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="60"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="24">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="23">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8636F10D-0A22-28FB-CFA3-F386AF0C6CFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD26F06-75A7-5302-F513-A7784B341533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>109536</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FBAB4FC-E411-67CC-F0EE-738F849646CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53478586-D54F-17A5-3747-6F9EC1F12280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AD8F87-0B63-6DFA-9083-62920F49B8C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CAD5169-F638-1E1E-FF11-F01DD52A3D6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -579,7 +7268,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -685,7 +7374,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -835,27 +7524,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E05D01-09F3-473C-BD5D-530D7D865754}">
-  <dimension ref="A3:U25"/>
+  <dimension ref="A3:U26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="10" max="10" width="15.42578125" style="1" customWidth="1"/>
     <col min="11" max="12" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.7109375" customWidth="1"/>
@@ -864,532 +7554,595 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="22" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="E3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="24" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="I3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="26" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="N3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="S3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="S3" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="14" t="s">
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10" t="s">
+      <c r="Q4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="S4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>12</v>
+      <c r="U4" s="16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="29">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="23">
         <v>230</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="43">
+      <c r="C5" s="23"/>
+      <c r="E5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="37">
         <v>529</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="38"/>
+      <c r="I5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="55">
+        <f>DATE(2025,$C$19, 10)</f>
+        <v>45971</v>
+      </c>
+      <c r="K5" s="25">
+        <v>400</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="N5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="57">
+        <f ca="1">DATE(2025,$C$19, RANDBETWEEN(1, 28))</f>
+        <v>45989</v>
+      </c>
+      <c r="P5" s="27">
         <v>10</v>
       </c>
-      <c r="K5" s="31">
-        <v>400</v>
-      </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="15">
-        <v>6</v>
-      </c>
-      <c r="P5" s="33">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="33"/>
-      <c r="S5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="35">
+      <c r="Q5" s="27"/>
+      <c r="S5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="29">
         <v>80</v>
       </c>
-      <c r="U5" s="35"/>
+      <c r="U5" s="29"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="29">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="23">
         <v>200</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="43">
+      <c r="C6" s="23"/>
+      <c r="E6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="37">
         <v>450</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7" t="s">
+      <c r="G6" s="38"/>
+      <c r="I6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="7">
-        <v>5</v>
-      </c>
-      <c r="K6" s="31">
+      <c r="J6" s="55">
+        <f>DATE(2025,$C$19, 5)</f>
+        <v>45966</v>
+      </c>
+      <c r="K6" s="25">
         <v>12</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="15">
-        <v>23</v>
-      </c>
-      <c r="P6" s="33">
+      <c r="L6" s="25"/>
+      <c r="N6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="57">
+        <f ca="1">DATE(2025,$C$19, RANDBETWEEN(1, 28))</f>
+        <v>45970</v>
+      </c>
+      <c r="P6" s="27">
         <v>2.5</v>
       </c>
-      <c r="Q6" s="33"/>
-      <c r="S6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="35">
+      <c r="Q6" s="27"/>
+      <c r="S6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="29">
         <v>10</v>
       </c>
-      <c r="U6" s="35"/>
+      <c r="U6" s="29"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="29">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="23">
         <v>1500</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="43">
+      <c r="C7" s="23"/>
+      <c r="E7" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="37">
         <v>150</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="7">
-        <v>5</v>
-      </c>
-      <c r="K7" s="31">
+      <c r="G7" s="38"/>
+      <c r="I7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="55">
+        <f>DATE(2025,$C$19, 5)</f>
+        <v>45966</v>
+      </c>
+      <c r="K7" s="25">
         <v>10</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="15">
-        <v>12</v>
-      </c>
-      <c r="P7" s="33">
+      <c r="L7" s="25"/>
+      <c r="N7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="57">
+        <f ca="1">DATE(2025,$C$19, RANDBETWEEN(1, 28))</f>
+        <v>45979</v>
+      </c>
+      <c r="P7" s="27">
         <v>8</v>
       </c>
-      <c r="Q7" s="33"/>
-      <c r="S7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="T7" s="35">
+      <c r="Q7" s="27"/>
+      <c r="S7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="29">
         <v>80</v>
       </c>
-      <c r="U7" s="35"/>
+      <c r="U7" s="29"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="23">
+        <v>100</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="E8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="38">
+        <v>300</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="I8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="55">
+        <f>DATE(2025,$C$19, 10)</f>
+        <v>45971</v>
+      </c>
+      <c r="K8" s="25">
+        <v>20</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="N8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="57">
+        <f ca="1">DATE(2025,$C$19, RANDBETWEEN(1, 28))</f>
+        <v>45970</v>
+      </c>
+      <c r="P8" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="27"/>
+      <c r="S8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="29">
         <v>30</v>
       </c>
-      <c r="B8" s="29">
-        <v>100</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="44">
-        <v>300</v>
-      </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="7">
-        <v>10</v>
-      </c>
-      <c r="K8" s="31">
-        <v>20</v>
-      </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="15">
-        <v>10</v>
-      </c>
-      <c r="P8" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="33"/>
-      <c r="S8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" s="35">
-        <v>30</v>
-      </c>
-      <c r="U8" s="35"/>
+      <c r="U8" s="29"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="44">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="E9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="38">
         <v>100</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="7">
-        <v>10</v>
-      </c>
-      <c r="K9" s="31">
+      <c r="G9" s="38"/>
+      <c r="I9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="55">
+        <f>DATE(2025,$C$19, 10)</f>
+        <v>45971</v>
+      </c>
+      <c r="K9" s="25">
         <v>45</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="S9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="T9" s="35">
+      <c r="L9" s="25"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="S9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="29">
         <v>100</v>
       </c>
-      <c r="U9" s="35"/>
+      <c r="U9" s="29"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="42" t="s">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="E10" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="38">
         <v>30</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="7">
-        <v>10</v>
-      </c>
-      <c r="K10" s="31">
+      <c r="G10" s="38"/>
+      <c r="I10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="55">
+        <f>DATE(2025,$C$19, 10)</f>
+        <v>45971</v>
+      </c>
+      <c r="K10" s="25">
         <v>35</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
+      <c r="L10" s="25"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="44">
+      <c r="A11" s="4"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="E11" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="38">
         <v>50</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="7">
-        <v>10</v>
-      </c>
-      <c r="K11" s="31">
+      <c r="G11" s="38"/>
+      <c r="I11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="55">
+        <f>DATE(2025,$C$19, 10)</f>
+        <v>45971</v>
+      </c>
+      <c r="K11" s="25">
         <v>7</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
+      <c r="L11" s="25"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="43">
+      <c r="A12" s="4"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="E12" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="37">
         <v>20</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
+      <c r="G12" s="38"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="43">
+      <c r="A13" s="4"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="E13" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="37">
         <v>21</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
+      <c r="G13" s="38"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="37">
+      <c r="A15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="31">
         <f>SUM(B5:B14)</f>
         <v>2030</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="31">
         <f>SUM(C5:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="38">
+      <c r="E15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="32">
         <f>SUM(F5:F14)</f>
         <v>1650</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="32">
         <f>SUM(G5:G14)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="39">
+      <c r="I15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="33">
         <f>SUM(K5:K14)</f>
         <v>529</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="33">
         <f>SUM(L5:L14)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="40">
+      <c r="N15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="22"/>
+      <c r="P15" s="34">
         <f>SUM(P5:P14)</f>
         <v>21.5</v>
       </c>
-      <c r="Q15" s="40">
+      <c r="Q15" s="34">
         <f>SUM(Q5:Q14)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="T15" s="41">
+      <c r="S15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="35">
         <f>SUM(T5:T14)</f>
         <v>300</v>
       </c>
-      <c r="U15" s="41">
+      <c r="U15" s="35">
         <f>SUM(U5:U14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F17" s="3"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F18" s="3"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="50">
+        <f>DATE(2025, C19, 1)</f>
+        <v>45962</v>
+      </c>
+      <c r="C19" s="56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="51">
+        <f>B15</f>
+        <v>2030</v>
+      </c>
+      <c r="C22" s="51">
+        <f>C15</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="52">
+        <f>B22-C22</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="51">
+        <f>F15</f>
+        <v>1650</v>
+      </c>
+      <c r="C23" s="51">
+        <f>G15</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="52">
+        <f t="shared" ref="D23:D24" si="0">B23-C23</f>
+        <v>1650</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="51">
+        <f>T15</f>
+        <v>300</v>
+      </c>
+      <c r="C24" s="51">
+        <f>U15</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="52">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
       <c r="F25" s="3"/>
       <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="52">
+        <f>B22-B23-B24</f>
+        <v>80</v>
+      </c>
+      <c r="C26" s="52">
+        <f>C22-C23-C24</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="52">
+        <f>D22-D23-D24</f>
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1399,7 +8152,29 @@
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="S3:U3"/>
   </mergeCells>
+  <conditionalFormatting sqref="B26:D26">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O14">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+      <formula>TODAY()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J14">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>TODAY()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="34" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>